--- a/Data/Out/Reportes ventas Inconsistentes/042022.xlsx
+++ b/Data/Out/Reportes ventas Inconsistentes/042022.xlsx
@@ -9020,21 +9020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B32A778A31FFD4599684145A474BB02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c35db349a7b3f7090307af17bf71e6c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6b616d5-dbec-45e2-a325-0767cdc64bbd" xmlns:ns3="d8d7c9da-3c2a-46b5-b5ad-eedeae09cef9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cac5d56ead489c64ac996c859338d02d" ns2:_="" ns3:_="">
     <xsd:import namespace="a6b616d5-dbec-45e2-a325-0767cdc64bbd"/>
@@ -9237,24 +9222,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1E8A68-E516-4B49-9529-F0A6A74D3CA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21516B90-0DDA-48D6-AFC1-33FC4083D4A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9271,4 +9254,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1E8A68-E516-4B49-9529-F0A6A74D3CA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>